--- a/data/trans_dic/P41A_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5921736129640002</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4049088365752465</v>
+        <v>0.4049088365752466</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5123698555869545</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5013202594732584</v>
+        <v>0.4974741086448515</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5669535461093125</v>
+        <v>0.5630116133665751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5608608010604983</v>
+        <v>0.5587509745334297</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.622900098280829</v>
+        <v>0.6289915412333723</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4282981622459599</v>
+        <v>0.4365847002109751</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5603796721996087</v>
+        <v>0.5643941836562518</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5425148358591139</v>
+        <v>0.5426605016194369</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3074175513270747</v>
+        <v>0.3059947591772128</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4808687073114514</v>
+        <v>0.4831830193627483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5785554373740263</v>
+        <v>0.580544821088822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5692172529142424</v>
+        <v>0.5641568633329421</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5010745450955851</v>
+        <v>0.5007727156675977</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5910164991213883</v>
+        <v>0.5871149170403874</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6573727519184493</v>
+        <v>0.6591098143929306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.65602507183424</v>
+        <v>0.6535836627452818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.812895977232132</v>
+        <v>0.8179787923268218</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.518583670580621</v>
+        <v>0.529123886060139</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6578803263814657</v>
+        <v>0.6613857994230957</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6387770250987114</v>
+        <v>0.6394344678255112</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5094913093506618</v>
+        <v>0.5028269073850211</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5461760363546394</v>
+        <v>0.5433493068692357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6479031595048705</v>
+        <v>0.6483471355441153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6377129344771668</v>
+        <v>0.6336537772493064</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6473816487287396</v>
+        <v>0.6440988645613431</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.7179415915468838</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.682262043788063</v>
+        <v>0.6822620437880631</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.708804714365317</v>
+        <v>0.7078130130481144</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7277124151739371</v>
+        <v>0.7282044624912982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6835116999648566</v>
+        <v>0.6838285750609385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6699325955075217</v>
+        <v>0.6724237938798667</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6502544063424622</v>
+        <v>0.6568064702833725</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6450941528912987</v>
+        <v>0.6442890843681601</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6705349765451503</v>
+        <v>0.6731990084864711</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5735249677609122</v>
+        <v>0.5692594814865186</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.69281153441345</v>
+        <v>0.6917762382910377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6993094919785801</v>
+        <v>0.6989435053256752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6928325741942118</v>
+        <v>0.6917527376423327</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6428436958254002</v>
+        <v>0.6380162621680129</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.778637770990902</v>
+        <v>0.7717908025934588</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7909539060148413</v>
+        <v>0.7932514178794859</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7595172678646761</v>
+        <v>0.758353998612538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7953437156316439</v>
+        <v>0.7972811861463014</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7290267635942902</v>
+        <v>0.7286474198637009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7202416148014229</v>
+        <v>0.7262324537387774</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7495513530244408</v>
+        <v>0.7494390458893141</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6765684476549049</v>
+        <v>0.6784609207205414</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7429256681880743</v>
+        <v>0.740803016681133</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7489957545614664</v>
+        <v>0.7489224817760147</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7439207606262327</v>
+        <v>0.744768574911759</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7174678055063975</v>
+        <v>0.7204516179217765</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7051995372356017</v>
+        <v>0.7010062532016409</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6963622436817528</v>
+        <v>0.6956087925822153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6910005856179037</v>
+        <v>0.6895960241029694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6265126360297087</v>
+        <v>0.6215276713379839</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.686117108350481</v>
+        <v>0.6868919219986713</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6067953230584597</v>
+        <v>0.6094457296603948</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6581013019521657</v>
+        <v>0.6560851611008613</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6160991499492691</v>
+        <v>0.6177610522306707</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7078821282186178</v>
+        <v>0.7035743476975564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6651217604333769</v>
+        <v>0.6610698815864572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6829969625565283</v>
+        <v>0.6839130701600769</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6327181870946925</v>
+        <v>0.6324224679698351</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7747551311966343</v>
+        <v>0.7749439044908724</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7666474562891973</v>
+        <v>0.7648400905388324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7651887643779414</v>
+        <v>0.7601677618090161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7167408977740831</v>
+        <v>0.7153229791250071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7581552262980849</v>
+        <v>0.7568334338665704</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.68132727567843</v>
+        <v>0.683444828234095</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7261741266525743</v>
+        <v>0.728208914310997</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6903638188207973</v>
+        <v>0.6903288050562186</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7583789981917738</v>
+        <v>0.7551203084723871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7168083000154672</v>
+        <v>0.7116227640971438</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7317446062767342</v>
+        <v>0.7332972523604325</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6914932110740309</v>
+        <v>0.6913468465052957</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.542366110502665</v>
+        <v>0.5418115761509508</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4980941537564472</v>
+        <v>0.4974457804679496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4472633345148108</v>
+        <v>0.4412929326841802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5021670821686263</v>
+        <v>0.4951184033299004</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.335939005770121</v>
+        <v>0.3377932120880561</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3080019129235569</v>
+        <v>0.3110603286776775</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3591849664080979</v>
+        <v>0.3578252522679679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3977596329283447</v>
+        <v>0.3924197242754177</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4486948723361469</v>
+        <v>0.4510021557303859</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.413137910355021</v>
+        <v>0.4168040129418918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.409534679105599</v>
+        <v>0.4108759578698133</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4564017598988764</v>
+        <v>0.456303130130286</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6320539019972292</v>
+        <v>0.6358279593205277</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5810829755064463</v>
+        <v>0.5795952310637669</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5287298750029216</v>
+        <v>0.5257597437921941</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5888611645157097</v>
+        <v>0.5879172611855762</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4226641793266704</v>
+        <v>0.4184243877578727</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3923431518176486</v>
+        <v>0.3931733185859569</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4348980731188261</v>
+        <v>0.4396421642116334</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4678905594468656</v>
+        <v>0.4628791191514732</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5126051291383394</v>
+        <v>0.5123998207571077</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4748717403722675</v>
+        <v>0.4752199792089814</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4668509376826744</v>
+        <v>0.4684310660466551</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5116497803056733</v>
+        <v>0.5113993944391421</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.04548373319838743</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07382363770154356</v>
+        <v>0.07382363770154354</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.07394530904739734</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07759776907340799</v>
+        <v>0.0772593245798112</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09829246138467884</v>
+        <v>0.09972253407121688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1327231202754001</v>
+        <v>0.1328384846733414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1036305846515516</v>
+        <v>0.1052695279723824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02638618641753578</v>
+        <v>0.02815657040949322</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02303084000221964</v>
+        <v>0.02413907350552249</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02885488138387048</v>
+        <v>0.0284069101041977</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05758401035999407</v>
+        <v>0.05662119706981785</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05653522640023179</v>
+        <v>0.05641032613552147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06630495695859633</v>
+        <v>0.06494551745746395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0823449321444277</v>
+        <v>0.0844366812067841</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08681146264586843</v>
+        <v>0.08604663120789503</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1419475955670552</v>
+        <v>0.1423366276739383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1693398264009883</v>
+        <v>0.1673536133762067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2029298003842975</v>
+        <v>0.2071896059101756</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1667645385950774</v>
+        <v>0.1693247797366398</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06870759290848028</v>
+        <v>0.06788831905549185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0575344848517788</v>
+        <v>0.06561552531362877</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0675075402958893</v>
+        <v>0.06786882330744119</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09472829142221373</v>
+        <v>0.09525122052985957</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09513970580937681</v>
+        <v>0.0942308180555928</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1057968826089255</v>
+        <v>0.1048168856986529</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1263676277368628</v>
+        <v>0.1261767983642639</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1238759193496555</v>
+        <v>0.1226475842361721</v>
       </c>
     </row>
     <row r="19">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01104625035232974</v>
+        <v>0.01242603294643807</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
@@ -1403,17 +1403,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.007083710045499993</v>
+        <v>0.007452237971689693</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.002586452259733622</v>
+        <v>0.002530085880309767</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01266554167783299</v>
+        <v>0.01269772058800078</v>
       </c>
     </row>
     <row r="21">
@@ -1426,30 +1426,30 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.03038456549561517</v>
+        <v>0.02779959724937606</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04016064809473526</v>
+        <v>0.0400138388024397</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01711056660692973</v>
+        <v>0.01934065930221837</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0273427774406386</v>
+        <v>0.02759459178788337</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02975694132184467</v>
+        <v>0.02873793280836991</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.009742154466251093</v>
+        <v>0.01005423632334946</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01944307271473691</v>
+        <v>0.0195911960119211</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03028088241880568</v>
+        <v>0.03049472885375884</v>
       </c>
     </row>
     <row r="22">
@@ -1511,27 +1511,27 @@
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.002712973344013363</v>
+        <v>0.002727096100382085</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003931470932825859</v>
+        <v>0.00348047401363898</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="n">
-        <v>0.002559569451646083</v>
+        <v>0.00259632156411227</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002135685406456998</v>
+        <v>0.00242314315998422</v>
       </c>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="inlineStr"/>
       <c r="N23" s="5" t="n">
-        <v>0.002803714877917646</v>
+        <v>0.004028547207200176</v>
       </c>
     </row>
     <row r="24">
@@ -1545,27 +1545,27 @@
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.02325195623969581</v>
+        <v>0.02237941561574927</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03555137577491107</v>
+        <v>0.03721611593867934</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01295011795297199</v>
+        <v>0.0164923792999661</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.01953411138092968</v>
+        <v>0.02185585462295715</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02202679170627717</v>
+        <v>0.02152062734555465</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.008325917388474085</v>
+        <v>0.00915584611038148</v>
       </c>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="n">
-        <v>0.0178810902563082</v>
+        <v>0.01789190604313269</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0.3876104564465887</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3471624765937878</v>
+        <v>0.3471624765937879</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4508491993661912</v>
@@ -1624,40 +1624,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4793705911855092</v>
+        <v>0.4800116549989177</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.476276614759228</v>
+        <v>0.4751611213326866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4439392837454911</v>
+        <v>0.4424729540896555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3949379233435359</v>
+        <v>0.3922533795319028</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3876577281461242</v>
+        <v>0.3877862588926904</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3707853119922125</v>
+        <v>0.3707378670422237</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3708424105581282</v>
+        <v>0.3718120631084368</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3305230996059919</v>
+        <v>0.3302339312568254</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4395075421811741</v>
+        <v>0.438925716181664</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4266672921309126</v>
+        <v>0.4256343455814526</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4116045473461931</v>
+        <v>0.4106567244278691</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3669002462222862</v>
+        <v>0.3664934725809988</v>
       </c>
     </row>
     <row r="27">
@@ -1668,40 +1668,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5138467378271427</v>
+        <v>0.5158610351882837</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5109210180082548</v>
+        <v>0.5123082356519546</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4788658019163877</v>
+        <v>0.4772295485656173</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4374175804237558</v>
+        <v>0.4372479536010201</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4217495088494569</v>
+        <v>0.4210922884323418</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4045583395263146</v>
+        <v>0.4041256623333837</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4062808178552755</v>
+        <v>0.404264929491939</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3652431349736872</v>
+        <v>0.364686862662824</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4636914926707911</v>
+        <v>0.463811133366152</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4512002077380867</v>
+        <v>0.4504978222411887</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4350940943782815</v>
+        <v>0.4343818794161468</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3944388136147982</v>
+        <v>0.3951521106005882</v>
       </c>
     </row>
     <row r="28">
@@ -1975,40 +1975,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>246329</v>
+        <v>244439</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>257480</v>
+        <v>255689</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>234052</v>
+        <v>233172</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>121798</v>
+        <v>122989</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>199802</v>
+        <v>203667</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>240516</v>
+        <v>242239</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>212867</v>
+        <v>212924</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54187</v>
+        <v>53936</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>460605</v>
+        <v>462822</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>511066</v>
+        <v>512823</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>460883</v>
+        <v>456785</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>186299</v>
+        <v>186186</v>
       </c>
     </row>
     <row r="7">
@@ -2019,40 +2019,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>290402</v>
+        <v>288485</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>298543</v>
+        <v>299332</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>273765</v>
+        <v>272746</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>158948</v>
+        <v>159942</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>241920</v>
+        <v>246837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>282364</v>
+        <v>283868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>250637</v>
+        <v>250895</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89805</v>
+        <v>88631</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>523161</v>
+        <v>520453</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>572324</v>
+        <v>572716</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>516342</v>
+        <v>513056</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>240695</v>
+        <v>239475</v>
       </c>
     </row>
     <row r="8">
@@ -2155,40 +2155,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>521318</v>
+        <v>520589</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>498657</v>
+        <v>498994</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>403611</v>
+        <v>403798</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>224017</v>
+        <v>224850</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>405693</v>
+        <v>409781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>393035</v>
+        <v>392545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>375038</v>
+        <v>376528</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>193200</v>
+        <v>191764</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>941800</v>
+        <v>940392</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>905261</v>
+        <v>904787</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>796625</v>
+        <v>795384</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>431511</v>
+        <v>428270</v>
       </c>
     </row>
     <row r="11">
@@ -2199,40 +2199,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>572680</v>
+        <v>567644</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>541992</v>
+        <v>543567</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>448492</v>
+        <v>447805</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>265953</v>
+        <v>266601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>454839</v>
+        <v>454602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>438820</v>
+        <v>442470</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>419233</v>
+        <v>419170</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>227912</v>
+        <v>228550</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1009924</v>
+        <v>1007039</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>969580</v>
+        <v>969485</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>855367</v>
+        <v>856342</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>481602</v>
+        <v>483605</v>
       </c>
     </row>
     <row r="12">
@@ -2335,40 +2335,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>447666</v>
+        <v>445004</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>474106</v>
+        <v>473593</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>462346</v>
+        <v>461407</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>286281</v>
+        <v>284003</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>467677</v>
+        <v>468205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>431340</v>
+        <v>433224</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>432882</v>
+        <v>431556</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>287518</v>
+        <v>288294</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>931882</v>
+        <v>926211</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>925639</v>
+        <v>920000</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>906249</v>
+        <v>907464</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>584391</v>
+        <v>584117</v>
       </c>
     </row>
     <row r="15">
@@ -2379,40 +2379,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>491821</v>
+        <v>491941</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>521959</v>
+        <v>520728</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>511986</v>
+        <v>508626</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>327510</v>
+        <v>326863</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>516781</v>
+        <v>515880</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>484321</v>
+        <v>485827</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>477658</v>
+        <v>478997</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>322176</v>
+        <v>322159</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>998358</v>
+        <v>994068</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>997570</v>
+        <v>990353</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>970931</v>
+        <v>972991</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>638676</v>
+        <v>638541</v>
       </c>
     </row>
     <row r="16">
@@ -2515,40 +2515,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>279525</v>
+        <v>279239</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>306137</v>
+        <v>305739</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>288054</v>
+        <v>284209</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>253845</v>
+        <v>250282</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>171693</v>
+        <v>172641</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>189790</v>
+        <v>191675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>232366</v>
+        <v>231486</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>227245</v>
+        <v>224194</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>460570</v>
+        <v>462938</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>508497</v>
+        <v>513009</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>528694</v>
+        <v>530426</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>491458</v>
+        <v>491352</v>
       </c>
     </row>
     <row r="19">
@@ -2559,40 +2559,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>325749</v>
+        <v>327694</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>357143</v>
+        <v>356229</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>340522</v>
+        <v>338609</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>297669</v>
+        <v>297192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>216017</v>
+        <v>213850</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>241761</v>
+        <v>242273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>281347</v>
+        <v>284416</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>267312</v>
+        <v>264449</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>526172</v>
+        <v>525961</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>584480</v>
+        <v>584908</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>602687</v>
+        <v>604727</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>550950</v>
+        <v>550680</v>
       </c>
     </row>
     <row r="20">
@@ -2695,40 +2695,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29936</v>
+        <v>29806</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42210</v>
+        <v>42824</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63303</v>
+        <v>63358</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46659</v>
+        <v>47397</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10605</v>
+        <v>11316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10313</v>
+        <v>10809</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14302</v>
+        <v>14080</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25435</v>
+        <v>25010</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44533</v>
+        <v>44434</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>58165</v>
+        <v>56972</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>80090</v>
+        <v>82124</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>77431</v>
+        <v>76749</v>
       </c>
     </row>
     <row r="23">
@@ -2739,40 +2739,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>54761</v>
+        <v>54911</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>72719</v>
+        <v>71866</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>96788</v>
+        <v>98820</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>75084</v>
+        <v>76237</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27614</v>
+        <v>27285</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25764</v>
+        <v>29383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33460</v>
+        <v>33640</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>41842</v>
+        <v>42073</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>74941</v>
+        <v>74225</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>92808</v>
+        <v>91948</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>122906</v>
+        <v>122721</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>110490</v>
+        <v>109395</v>
       </c>
     </row>
     <row r="24">
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3562</v>
+        <v>4007</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -2890,17 +2890,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2010</v>
+        <v>2115</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1842</v>
+        <v>1802</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7679</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="27">
@@ -2913,30 +2913,30 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>10158</v>
+        <v>9294</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12952</v>
+        <v>12905</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>6039</v>
+        <v>6826</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10329</v>
+        <v>10424</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8445</v>
+        <v>8156</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>6457</v>
+        <v>6663</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13845</v>
+        <v>13951</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>18360</v>
+        <v>18490</v>
       </c>
     </row>
     <row r="28">
@@ -3042,27 +3042,27 @@
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1313</v>
+        <v>1162</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="n">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1161</v>
+        <v>1318</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="inlineStr"/>
       <c r="N30" s="6" t="n">
-        <v>1336</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="31">
@@ -3076,27 +3076,27 @@
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>5526</v>
+        <v>5318</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11871</v>
+        <v>12427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5037</v>
+        <v>6415</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>4663</v>
+        <v>5217</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>11978</v>
+        <v>11703</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5310</v>
+        <v>5839</v>
       </c>
       <c r="M31" s="6" t="inlineStr"/>
       <c r="N31" s="6" t="n">
-        <v>8518</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="32">
@@ -3199,40 +3199,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1565284</v>
+        <v>1567377</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1630227</v>
+        <v>1626409</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1503910</v>
+        <v>1498943</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>988434</v>
+        <v>981715</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1302921</v>
+        <v>1303353</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1318236</v>
+        <v>1318067</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1308615</v>
+        <v>1312037</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>831384</v>
+        <v>830657</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2912308</v>
+        <v>2908453</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2977331</v>
+        <v>2970123</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2846827</v>
+        <v>2840271</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1841148</v>
+        <v>1839107</v>
       </c>
     </row>
     <row r="35">
@@ -3243,40 +3243,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1677859</v>
+        <v>1684436</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1748810</v>
+        <v>1753558</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1622229</v>
+        <v>1616686</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1094750</v>
+        <v>1094326</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1417504</v>
+        <v>1415295</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1438307</v>
+        <v>1436769</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1433669</v>
+        <v>1426555</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>918717</v>
+        <v>917318</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3072558</v>
+        <v>3073351</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3148525</v>
+        <v>3143623</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3009290</v>
+        <v>3004364</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1979340</v>
+        <v>1982919</v>
       </c>
     </row>
     <row r="36">
